--- a/20250209_logistic_regression_ml.xlsx
+++ b/20250209_logistic_regression_ml.xlsx
@@ -8,30 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\조근하\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{808D9D5F-1DDA-4B26-BDF1-C74F414F6A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22B267A0-7F40-4616-A765-4BB27236F008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="로지스틱회귀함수" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">로지스틱회귀함수!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>Logits</t>
-  </si>
-  <si>
-    <t>Probabilities</t>
   </si>
   <si>
     <t>절편(Intercept)</t>
@@ -120,13 +114,23 @@
   <si>
     <t>Sigmoid(X)</t>
   </si>
+  <si>
+    <t>선형회귀식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>. 로지스틱회귀식 
+. 시그모이드함수
+. Probabilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -439,19 +443,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -460,10 +464,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -499,7 +503,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -519,12 +523,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -533,6 +531,18 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -607,7 +617,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>로지스틱회귀함수!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -641,7 +651,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>로지스틱회귀함수!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="20"/>
@@ -710,7 +720,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:f>로지스틱회귀함수!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1019,11 +1029,13 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>로지스틱회귀함수!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Probabilities</c:v>
+                  <c:v>. 로지스틱회귀식 
+. 시그모이드함수
+. Probabilities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1054,7 +1066,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>로지스틱회귀함수!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="20"/>
@@ -1123,7 +1135,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:f>로지스틱회귀함수!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="20"/>
@@ -1432,7 +1444,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$23</c:f>
+              <c:f>로지스틱회귀함수!$I$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1467,7 +1479,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$24:$H$33</c:f>
+              <c:f>로지스틱회귀함수!$H$24:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1506,7 +1518,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$24:$I$33</c:f>
+              <c:f>로지스틱회귀함수!$I$24:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3475,15 +3487,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>137</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>190551</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>731657</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>487731</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3506,7 +3518,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8991600" y="4709160"/>
+          <a:off x="9052560" y="4777740"/>
           <a:ext cx="1577477" cy="586791"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3845,14 +3857,14 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.796875" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.59765625" style="4" customWidth="1"/>
     <col min="6" max="6" width="7.796875" style="4" customWidth="1"/>
@@ -3866,30 +3878,30 @@
   <sheetData>
     <row r="1" spans="1:9" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="30"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="8">
@@ -3919,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="24">
         <v>0.2</v>
@@ -3953,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="25">
         <v>0.8</v>
@@ -4003,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="2"/>
+        <f>IF(C5&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="F5" s="4">
@@ -4199,15 +4211,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="4">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -4434,7 +4447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="9">
         <v>4.699098521619943</v>
       </c>
@@ -4461,63 +4474,66 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="H21" s="35" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="E22" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F22" s="14">
         <f>SUM(F2:F21)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="14">
         <f>SUM(G2:G21)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="E23" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" s="14">
         <f>COUNT(A2:A21)</f>
         <v>20</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="31" t="s">
-        <v>18</v>
+      <c r="I23" s="29" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F24" s="14">
         <f>SUM(D2:D21)</f>
         <v>9</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="30">
         <v>-5</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="31">
         <f>1/(1+EXP(-H24))</f>
         <v>6.6928509242848554E-3</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E25" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F25" s="14">
         <f>SUM(E2:E21)</f>
-        <v>10</v>
-      </c>
-      <c r="H25" s="32">
+        <v>9</v>
+      </c>
+      <c r="H25" s="30">
         <v>-3.888888889</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="31">
         <f t="shared" ref="I25:I33" si="5">1/(1+EXP(-H25))</f>
         <v>2.0057536535666498E-2</v>
       </c>
@@ -4525,16 +4541,16 @@
     <row r="26" spans="1:9" ht="19.2" x14ac:dyDescent="0.45">
       <c r="D26" s="18"/>
       <c r="E26" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F26" s="15">
         <f>F22/F23</f>
-        <v>0.85</v>
-      </c>
-      <c r="H26" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="H26" s="30">
         <v>-2.7777777779999999</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="31">
         <f t="shared" si="5"/>
         <v>5.8536902862121154E-2</v>
       </c>
@@ -4542,16 +4558,16 @@
     <row r="27" spans="1:9" ht="19.2" x14ac:dyDescent="0.45">
       <c r="D27" s="20"/>
       <c r="E27" s="21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" s="16">
         <f>G22/F24</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="H27" s="32">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="H27" s="30">
         <v>-1.6666666670000001</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="31">
         <f t="shared" si="5"/>
         <v>0.1588691048363719</v>
       </c>
@@ -4559,61 +4575,61 @@
     <row r="28" spans="1:9" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D28" s="22"/>
       <c r="E28" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F28" s="17">
         <f>G22/F25</f>
-        <v>0.8</v>
-      </c>
-      <c r="H28" s="32">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="H28" s="30">
         <v>-0.55555555599999995</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="31">
         <f t="shared" si="5"/>
         <v>0.36457644063867906</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H29" s="32">
+      <c r="H29" s="30">
         <v>0.55555555599999995</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="31">
         <f t="shared" si="5"/>
         <v>0.63542355936132089</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H30" s="32">
+      <c r="H30" s="30">
         <v>1.6666666670000001</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="31">
         <f t="shared" si="5"/>
         <v>0.84113089516362816</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H31" s="32">
+      <c r="H31" s="30">
         <v>2.7777777779999999</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="31">
         <f t="shared" si="5"/>
         <v>0.9414630971378789</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H32" s="32">
+      <c r="H32" s="30">
         <v>3.888888889</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="31">
         <f t="shared" si="5"/>
         <v>0.97994246346433345</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H33" s="32">
+      <c r="H33" s="30">
         <v>5</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="31">
         <f t="shared" si="5"/>
         <v>0.99330714907571527</v>
       </c>
